--- a/data/trans_bre/P5_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,15%</t>
+          <t>-18,1%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,98; -1,72</t>
+          <t>-22,73; -1,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 0,13</t>
+          <t>-19,41; 2,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -3,67</t>
+          <t>-41,32; -3,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 0,74</t>
+          <t>-36,68; 6,35</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,68%</t>
+          <t>-18,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-10,91%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 2,58</t>
+          <t>-19,43; 2,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 8,84</t>
+          <t>-16,37; 7,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 6,88</t>
+          <t>-39,43; 6,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 26,91</t>
+          <t>-34,27; 22,05</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-10,03%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 7,59</t>
+          <t>-9,22; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 4,08</t>
+          <t>-14,01; 4,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 22,12</t>
+          <t>-21,2; 22,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 11,55</t>
+          <t>-29,58; 12,6</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>-4,47%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -0,4</t>
+          <t>-16,31; -0,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 6,86</t>
+          <t>-10,46; 6,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; -0,89</t>
+          <t>-33,14; -1,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 17,37</t>
+          <t>-21,34; 16,83</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-23,07%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 4,21</t>
+          <t>-12,64; 5,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 0,49</t>
+          <t>-19,05; -0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 12,17</t>
+          <t>-29,48; 15,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 1,05</t>
+          <t>-41,0; -2,47</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-3,82%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 7,93</t>
+          <t>-9,97; 7,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 10,21</t>
+          <t>-12,76; 8,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 23,76</t>
+          <t>-22,93; 22,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 30,57</t>
+          <t>-26,27; 26,12</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-11,02%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -2,0</t>
+          <t>-9,5; -1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,55; -0,64</t>
+          <t>-9,27; -0,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,82; -4,93</t>
+          <t>-21,47; -4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,88; -1,5</t>
+          <t>-20,5; -1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-13,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,85</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-25,63%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,1%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-13.04723611975492</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.473967557789569</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.256253628781533</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1987447971997196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; -1,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,41; 2,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-41,32; -3,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-36,68; 6,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-22.73119924278914</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.52304619626926</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4131981283030507</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3938925562275019</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.835751373454356</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.944464140483407</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>-0.03804752827186544</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.04941111176292552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-7,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-18,69%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-19,43; 2,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,37; 7,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-39,43; 6,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,27; 22,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.830248212393193</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.361985189446987</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1868707828466087</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.08678071166261084</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,58%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-10,03%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-19.42840360351307</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.49289491406155</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3942968349564644</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3386867799043335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; 7,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,01; 4,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; 22,02</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,58; 12,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.265371173330072</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.909505078825937</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.06237078422480329</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2593846487986644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-8,14</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.6197895009303123</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.712141457207175</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.01577202366943121</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.115426865166349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; -0,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 6,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-33,14; -1,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-21,34; 16,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.22419708614218</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.84897719257907</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2120313232662283</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3155802358065474</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.4556896181591</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.497525762508435</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2201795779987096</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1253170346868928</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,35%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-23,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 5,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-19,05; -0,85</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-29,48; 15,98</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-41,0; -2,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-8.135739846984864</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.772859489766881</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1769067199806999</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.04029480495131676</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,11%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-3,82%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-16.31035762058362</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.28501940093071</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3314025923641695</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2071890496498683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 7,57</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; 8,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,93; 22,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-26,27; 26,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.499183350970184</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.940879709992491</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.01282459428367021</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1760831785119849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-4,7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-13,16%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-11,02%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.981542672695832</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.66959461431232</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.1034763190129426</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.2070527763035359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; -1,82</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; -0,47</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-21,47; -4,51</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-20,5; -1,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.64093793388142</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-18.18362390831434</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.2947710421697789</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.3930215399057522</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.505919060813255</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-0.04328755247882038</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.1598474017709661</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>-0.0002031687077215661</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.613738915591789</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-1.810697950629153</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.04114405735586765</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.04476587652032654</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-9.973898520323241</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-12.34589178578937</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2292662657438288</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2724908278235363</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>7.573838596645173</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>9.454575983945549</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2225094382407358</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.2693791393337255</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.601425034748769</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.598546226800354</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.1316272031677372</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.1091025631280538</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.501016325367132</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.867989068365569</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.2146735845439877</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2050650232013756</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-1.815715406683933</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.1910500528218063</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-0.04508100832366943</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>-0.006738942564400876</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
